--- a/gdp_stats.xlsx
+++ b/gdp_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d.j/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E35FA7-F069-0445-A39E-761EAF6E91CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3286D4-B587-E542-AD98-3C73AA0A5F7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-22580" windowWidth="38400" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="54">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -738,19 +738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="32" width="10.83203125" customWidth="1"/>
+    <col min="3" max="31" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,22 +830,19 @@
         <v>49</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="2:32" ht="56" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:31" ht="56" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
@@ -933,14 +930,11 @@
       <c r="AD2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AE2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
@@ -1020,22 +1014,19 @@
         <v>4165174</v>
       </c>
       <c r="AB3" s="8">
-        <v>4165174</v>
+        <v>4314719</v>
       </c>
       <c r="AC3" s="8">
-        <v>4314719</v>
+        <v>4592620</v>
       </c>
       <c r="AD3" s="8">
-        <v>4592620</v>
-      </c>
-      <c r="AE3" s="8">
         <v>4875019</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AE3" s="9">
         <v>5189666</v>
       </c>
     </row>
-    <row r="4" spans="2:32" ht="42" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:31" ht="42" x14ac:dyDescent="0.15">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1123,14 +1114,11 @@
       <c r="AD4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1210,22 +1198,19 @@
         <v>4625378</v>
       </c>
       <c r="AB5" s="8">
-        <v>4625378</v>
+        <v>4796873</v>
       </c>
       <c r="AC5" s="8">
-        <v>4796873</v>
+        <v>5110743</v>
       </c>
       <c r="AD5" s="8">
-        <v>5110743</v>
-      </c>
-      <c r="AE5" s="8">
         <v>5409665</v>
       </c>
-      <c r="AF5" s="9">
+      <c r="AE5" s="9">
         <v>5748805</v>
       </c>
     </row>
-    <row r="6" spans="2:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1305,22 +1290,19 @@
         <v>105.4</v>
       </c>
       <c r="AB6" s="10">
-        <v>105.4</v>
+        <v>102.5</v>
       </c>
       <c r="AC6" s="10">
-        <v>102.5</v>
+        <v>105.2</v>
       </c>
       <c r="AD6" s="10">
-        <v>105.2</v>
-      </c>
-      <c r="AE6" s="10">
         <v>103.2</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AE6" s="11">
         <v>102.3</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="56" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:31" ht="56" x14ac:dyDescent="0.15">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1400,22 +1382,19 @@
         <v>162.30000000000001</v>
       </c>
       <c r="AB7" s="10">
-        <v>162.30000000000001</v>
+        <v>166.4</v>
       </c>
       <c r="AC7" s="10">
-        <v>166.4</v>
+        <v>175</v>
       </c>
       <c r="AD7" s="10">
-        <v>175</v>
-      </c>
-      <c r="AE7" s="10">
         <v>180.6</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AE7" s="11">
         <v>184.8</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1503,14 +1482,11 @@
       <c r="AD8" s="10">
         <v>100</v>
       </c>
-      <c r="AE8" s="10">
-        <v>100</v>
-      </c>
-      <c r="AF8" s="11">
+      <c r="AE8" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="28" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:31" ht="28" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1598,14 +1574,11 @@
       <c r="AD9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF9" s="13" t="s">
+      <c r="AE9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
@@ -1685,22 +1658,19 @@
         <v>438718</v>
       </c>
       <c r="AB10" s="8">
-        <v>438718</v>
+        <v>454022</v>
       </c>
       <c r="AC10" s="8">
-        <v>454022</v>
+        <v>482622</v>
       </c>
       <c r="AD10" s="8">
-        <v>482622</v>
-      </c>
-      <c r="AE10" s="8">
         <v>509076</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AE10" s="9">
         <v>538816</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="28" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:31" ht="28" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
@@ -1788,14 +1758,11 @@
       <c r="AD11" s="10">
         <v>100</v>
       </c>
-      <c r="AE11" s="10">
-        <v>100</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="AE11" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1883,14 +1850,11 @@
       <c r="AD12" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF12" s="13" t="s">
+      <c r="AE12" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
@@ -1970,22 +1934,19 @@
         <v>1227485</v>
       </c>
       <c r="AB13" s="8">
-        <v>1227485</v>
+        <v>1196467</v>
       </c>
       <c r="AC13" s="8">
-        <v>1196467</v>
+        <v>1273407</v>
       </c>
       <c r="AD13" s="8">
-        <v>1273407</v>
-      </c>
-      <c r="AE13" s="8">
         <v>1423024</v>
       </c>
-      <c r="AF13" s="9">
+      <c r="AE13" s="9">
         <v>1509054</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
@@ -2073,14 +2034,11 @@
       <c r="AD14" s="10">
         <v>100</v>
       </c>
-      <c r="AE14" s="10">
-        <v>100</v>
-      </c>
-      <c r="AF14" s="11">
+      <c r="AE14" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31" ht="28" x14ac:dyDescent="0.15">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
@@ -2168,14 +2126,11 @@
       <c r="AD15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF15" s="13" t="s">
+      <c r="AE15" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
@@ -2255,22 +2210,19 @@
         <v>116427</v>
       </c>
       <c r="AB16" s="8">
-        <v>116427</v>
+        <v>113245</v>
       </c>
       <c r="AC16" s="8">
-        <v>113245</v>
+        <v>120252</v>
       </c>
       <c r="AD16" s="8">
-        <v>120252</v>
-      </c>
-      <c r="AE16" s="8">
         <v>133914</v>
       </c>
-      <c r="AF16" s="9">
+      <c r="AE16" s="9">
         <v>141439</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31" ht="28" x14ac:dyDescent="0.15">
       <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
@@ -2358,14 +2310,11 @@
       <c r="AD17" s="10">
         <v>100</v>
       </c>
-      <c r="AE17" s="10">
-        <v>100</v>
-      </c>
-      <c r="AF17" s="11">
+      <c r="AE17" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B18" s="4" t="s">
         <v>21</v>
       </c>
@@ -2453,14 +2402,11 @@
       <c r="AD18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE18" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF18" s="13" t="s">
+      <c r="AE18" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
         <v>8</v>
       </c>
@@ -2540,22 +2486,19 @@
         <v>2283622</v>
       </c>
       <c r="AB19" s="8">
-        <v>2283622</v>
+        <v>2362685</v>
       </c>
       <c r="AC19" s="8">
-        <v>2362685</v>
+        <v>2528953</v>
       </c>
       <c r="AD19" s="8">
-        <v>2528953</v>
-      </c>
-      <c r="AE19" s="8">
         <v>2698341</v>
       </c>
-      <c r="AF19" s="9">
+      <c r="AE19" s="9">
         <v>2860526</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="70" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" ht="70" x14ac:dyDescent="0.15">
       <c r="B20" s="7" t="s">
         <v>22</v>
       </c>
@@ -2643,14 +2586,11 @@
       <c r="AD20" s="10">
         <v>100</v>
       </c>
-      <c r="AE20" s="10">
-        <v>100</v>
-      </c>
-      <c r="AF20" s="11">
+      <c r="AE20" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="28" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" ht="28" x14ac:dyDescent="0.15">
       <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
@@ -2738,14 +2678,11 @@
       <c r="AD21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AE21" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF21" s="13" t="s">
+      <c r="AE21" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" ht="14" x14ac:dyDescent="0.15">
       <c r="B22" s="7" t="s">
         <v>16</v>
       </c>
@@ -2825,22 +2762,19 @@
         <v>216602</v>
       </c>
       <c r="AB22" s="8">
-        <v>216602</v>
+        <v>223627</v>
       </c>
       <c r="AC22" s="8">
-        <v>223627</v>
+        <v>238816</v>
       </c>
       <c r="AD22" s="8">
-        <v>238816</v>
-      </c>
-      <c r="AE22" s="8">
         <v>253927</v>
       </c>
-      <c r="AF22" s="9">
+      <c r="AE22" s="9">
         <v>268108</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="29" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="29" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>17</v>
       </c>
@@ -2928,19 +2862,16 @@
       <c r="AD23" s="19">
         <v>100</v>
       </c>
-      <c r="AE23" s="19">
-        <v>100</v>
-      </c>
-      <c r="AF23" s="16">
+      <c r="AE23" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A27" s="17" t="s">
         <v>25</v>
       </c>
@@ -2977,10 +2908,10 @@
       <c r="Z27" t="s">
         <v>39</v>
       </c>
-      <c r="AC27" s="18" t="s">
+      <c r="AB27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2992,7 +2923,7 @@
     <hyperlink ref="N27" r:id="rId4" xr:uid="{2AD7A326-D202-9640-BACB-538711AB9F1E}"/>
     <hyperlink ref="S27" r:id="rId5" xr:uid="{883C688C-CD11-784C-9B51-ED80F58019CA}"/>
     <hyperlink ref="X27" r:id="rId6" xr:uid="{CA61EE25-E0AE-FE45-951A-C0FA3898212D}"/>
-    <hyperlink ref="AC27" r:id="rId7" xr:uid="{3976F8B6-F377-AD49-A3CD-B62F1A7F51D9}"/>
+    <hyperlink ref="AB27" r:id="rId7" xr:uid="{3976F8B6-F377-AD49-A3CD-B62F1A7F51D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
